--- a/data/trans_orig/P1416-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1416-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>35660</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24420</v>
+        <v>25650</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47297</v>
+        <v>49305</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05138222613405639</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03518638404350564</v>
+        <v>0.03695873147172313</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06814982895270284</v>
+        <v>0.07104349198244368</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>58</v>
@@ -765,19 +765,19 @@
         <v>58267</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>45385</v>
+        <v>46136</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>74521</v>
+        <v>75795</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08464768330991175</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06593267583940697</v>
+        <v>0.06702359863951672</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1082596277866665</v>
+        <v>0.1101115253193329</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>94</v>
@@ -786,19 +786,19 @@
         <v>93927</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>75196</v>
+        <v>75735</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>112893</v>
+        <v>112555</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06794683985051476</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05439638737231007</v>
+        <v>0.05478645660514347</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08166690184022787</v>
+        <v>0.08142212175396929</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>658352</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>646715</v>
+        <v>644707</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>669592</v>
+        <v>668362</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9486177738659436</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9318501710472973</v>
+        <v>0.9289565080175568</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9648136159564944</v>
+        <v>0.9630412685282774</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>638</v>
@@ -836,19 +836,19 @@
         <v>630084</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>613830</v>
+        <v>612556</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>642966</v>
+        <v>642215</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9153523166900882</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8917403722133336</v>
+        <v>0.889888474680667</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9340673241605936</v>
+        <v>0.9329764013604832</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1285</v>
@@ -857,19 +857,19 @@
         <v>1288436</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1269470</v>
+        <v>1269808</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1307167</v>
+        <v>1306628</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9320531601494852</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9183330981597722</v>
+        <v>0.9185778782460308</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9456036126276899</v>
+        <v>0.9452135433948565</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>72021</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57678</v>
+        <v>57234</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>91990</v>
+        <v>91314</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07488148621188165</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05996918854897728</v>
+        <v>0.05950759185412393</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09564397509189498</v>
+        <v>0.09494097882511619</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -982,19 +982,19 @@
         <v>94967</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77170</v>
+        <v>78330</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>114954</v>
+        <v>117271</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09806681017854081</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07968906380110598</v>
+        <v>0.08088625861882326</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.118705819542054</v>
+        <v>0.1210981157564301</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>154</v>
@@ -1003,19 +1003,19 @@
         <v>166988</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>141028</v>
+        <v>143487</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>190880</v>
+        <v>191775</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08651374580586702</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07306394730815695</v>
+        <v>0.07433830581935674</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09889170823654647</v>
+        <v>0.09935544725387387</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>889779</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>869810</v>
+        <v>870486</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>904122</v>
+        <v>904566</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9251185137881184</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9043560249081053</v>
+        <v>0.9050590211748839</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9400308114510227</v>
+        <v>0.9404924081458761</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>819</v>
@@ -1053,19 +1053,19 @@
         <v>873426</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>853439</v>
+        <v>851122</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>891223</v>
+        <v>890063</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9019331898214592</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8812941804579463</v>
+        <v>0.87890188424357</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.920310936198894</v>
+        <v>0.919113741381177</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1650</v>
@@ -1074,19 +1074,19 @@
         <v>1763205</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1739313</v>
+        <v>1738418</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1789165</v>
+        <v>1786706</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.913486254194133</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9011082917634535</v>
+        <v>0.9006445527461262</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9269360526918431</v>
+        <v>0.9256616941806433</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>40886</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28812</v>
+        <v>29422</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54727</v>
+        <v>55139</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06025819500505826</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04246379064392632</v>
+        <v>0.04336265978059253</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08065845531070653</v>
+        <v>0.08126439609197063</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>63</v>
@@ -1199,19 +1199,19 @@
         <v>60485</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47165</v>
+        <v>48008</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77205</v>
+        <v>76007</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08844904157277989</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06897070557572596</v>
+        <v>0.07020288290143548</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1128992032153887</v>
+        <v>0.1111470358881792</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>102</v>
@@ -1220,19 +1220,19 @@
         <v>101371</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>81723</v>
+        <v>82739</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>123470</v>
+        <v>121034</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0744087865700854</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05998693616334833</v>
+        <v>0.0607327973882288</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09063019952925717</v>
+        <v>0.08884223713621001</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>637623</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>623782</v>
+        <v>623370</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>649697</v>
+        <v>649087</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9397418049949418</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9193415446892914</v>
+        <v>0.9187356039080283</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9575362093560735</v>
+        <v>0.9566373402194073</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>633</v>
@@ -1270,19 +1270,19 @@
         <v>623356</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>606636</v>
+        <v>607834</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>636676</v>
+        <v>635833</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9115509584272201</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8871007967846115</v>
+        <v>0.8888529641118206</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9310292944242741</v>
+        <v>0.9297971170985645</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1235</v>
@@ -1291,19 +1291,19 @@
         <v>1260979</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1238880</v>
+        <v>1241316</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1280627</v>
+        <v>1279611</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9255912134299146</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9093698004707428</v>
+        <v>0.9111577628637899</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9400130638366516</v>
+        <v>0.9392672026117712</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>70712</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56312</v>
+        <v>57255</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88119</v>
+        <v>89709</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07504859573485591</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05976557536643157</v>
+        <v>0.06076645479730854</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09352236783121652</v>
+        <v>0.09521021185843624</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>105</v>
@@ -1416,19 +1416,19 @@
         <v>110310</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>92355</v>
+        <v>91800</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>131644</v>
+        <v>130650</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1062089992627949</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08892109851761838</v>
+        <v>0.08838680424653537</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1267503454348984</v>
+        <v>0.125793147529782</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>177</v>
@@ -1437,19 +1437,19 @@
         <v>181022</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>155179</v>
+        <v>157139</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>207342</v>
+        <v>206783</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09138694993182382</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07834023510531886</v>
+        <v>0.07932960006315723</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.104673885857121</v>
+        <v>0.1043919999962729</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>871510</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>854103</v>
+        <v>852513</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>885910</v>
+        <v>884967</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9249514042651441</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9064776321687836</v>
+        <v>0.9047897881415635</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9402344246335685</v>
+        <v>0.9392335452026914</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>892</v>
@@ -1487,19 +1487,19 @@
         <v>928302</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>906968</v>
+        <v>907962</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>946257</v>
+        <v>946812</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8937910007372051</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8732496545651017</v>
+        <v>0.874206852470218</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9110789014823816</v>
+        <v>0.9116131957534644</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1814</v>
@@ -1508,19 +1508,19 @@
         <v>1799812</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1773492</v>
+        <v>1774051</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1825655</v>
+        <v>1823695</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9086130500681762</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.895326114142879</v>
+        <v>0.8956080000037271</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.921659764894681</v>
+        <v>0.9206703999368426</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>219279</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>190111</v>
+        <v>193608</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>248076</v>
+        <v>249457</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06692390733899529</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05802178607102218</v>
+        <v>0.05908915541102524</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07571279204719857</v>
+        <v>0.07613413014860665</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>315</v>
@@ -1633,19 +1633,19 @@
         <v>324030</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>291517</v>
+        <v>289393</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>357710</v>
+        <v>359060</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09588951205477066</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08626816254183399</v>
+        <v>0.08563969490159655</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.105856501192828</v>
+        <v>0.1062559475636729</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>527</v>
@@ -1654,19 +1654,19 @@
         <v>543309</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>498791</v>
+        <v>501268</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>586741</v>
+        <v>591226</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08163008339646292</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07494144170394948</v>
+        <v>0.07531357902371294</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08815567872117933</v>
+        <v>0.08882946057112293</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3057264</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3028467</v>
+        <v>3027086</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3086432</v>
+        <v>3082935</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9330760926610047</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9242872079528015</v>
+        <v>0.9238658698513934</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.941978213928978</v>
+        <v>0.940910844588975</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2982</v>
@@ -1704,19 +1704,19 @@
         <v>3055167</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3021487</v>
+        <v>3020137</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3087680</v>
+        <v>3089804</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9041104879452293</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.894143498807172</v>
+        <v>0.8937440524363272</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9137318374581659</v>
+        <v>0.9143603050984039</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5984</v>
@@ -1725,19 +1725,19 @@
         <v>6112432</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6069000</v>
+        <v>6064515</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6156950</v>
+        <v>6154473</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9183699166035371</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9118443212788206</v>
+        <v>0.9111705394288772</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9250585582960505</v>
+        <v>0.9246864209762872</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>29477</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20018</v>
+        <v>20609</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42645</v>
+        <v>42623</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04196280715506768</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02849690740731737</v>
+        <v>0.02933932982421194</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0607094918436231</v>
+        <v>0.06067829059762242</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>43</v>
@@ -2090,19 +2090,19 @@
         <v>45165</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33902</v>
+        <v>34480</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60861</v>
+        <v>60940</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06479410151238368</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04863588258655527</v>
+        <v>0.04946590345382788</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08731282104074728</v>
+        <v>0.08742545462255069</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>71</v>
@@ -2111,19 +2111,19 @@
         <v>74641</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59727</v>
+        <v>58560</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>94240</v>
+        <v>93641</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0533344315870698</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04267739765732893</v>
+        <v>0.04184380583752521</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06733850494913893</v>
+        <v>0.06691038813330617</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>672970</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>659802</v>
+        <v>659824</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>682429</v>
+        <v>681838</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9580371928449323</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9392905081563769</v>
+        <v>0.9393217094023775</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9715030925926825</v>
+        <v>0.9706606701757879</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>607</v>
@@ -2161,19 +2161,19 @@
         <v>651885</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>636189</v>
+        <v>636110</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>663148</v>
+        <v>662570</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9352058984876163</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9126871789592528</v>
+        <v>0.9125745453774494</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9513641174134451</v>
+        <v>0.9505340965461722</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1252</v>
@@ -2182,19 +2182,19 @@
         <v>1324856</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1305257</v>
+        <v>1305856</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1339770</v>
+        <v>1340937</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9466655684129301</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.932661495050861</v>
+        <v>0.9330896118666938</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.957322602342671</v>
+        <v>0.9581561941624748</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>58137</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45169</v>
+        <v>44299</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>76184</v>
+        <v>75359</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05711234138079331</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04437296273867146</v>
+        <v>0.04351833964383706</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07484061926945564</v>
+        <v>0.07403007045920112</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -2307,19 +2307,19 @@
         <v>80147</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>64660</v>
+        <v>63553</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>101220</v>
+        <v>100754</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07774355368029685</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06272126103874144</v>
+        <v>0.06164767001328653</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09818501568169954</v>
+        <v>0.09773310410329258</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>126</v>
@@ -2328,19 +2328,19 @@
         <v>138284</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114821</v>
+        <v>117936</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>162697</v>
+        <v>165691</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06749320615184583</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0560414419334169</v>
+        <v>0.05756211988464966</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07940892587263058</v>
+        <v>0.08086996405190112</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>959810</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>941763</v>
+        <v>942588</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>972778</v>
+        <v>973648</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9428876586192066</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9251593807305444</v>
+        <v>0.9259699295407989</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9556270372613285</v>
+        <v>0.956481660356163</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>867</v>
@@ -2378,19 +2378,19 @@
         <v>950762</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>929689</v>
+        <v>930155</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>966249</v>
+        <v>967356</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9222564463197032</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9018149843183</v>
+        <v>0.9022668958967074</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9372787389612585</v>
+        <v>0.9383523299867135</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1749</v>
@@ -2399,19 +2399,19 @@
         <v>1910572</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1886159</v>
+        <v>1883165</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1934035</v>
+        <v>1930920</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9325067938481542</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9205910741273694</v>
+        <v>0.9191300359480989</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9439585580665831</v>
+        <v>0.9424378801153503</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>40525</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27626</v>
+        <v>28531</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55870</v>
+        <v>56101</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05348938030801136</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03646452372920812</v>
+        <v>0.03765805876978998</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07374427128849033</v>
+        <v>0.07404900002945765</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -2527,16 +2527,16 @@
         <v>37169</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65632</v>
+        <v>65371</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06455940434044528</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04782606131457239</v>
+        <v>0.04782645772465966</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08444969336528607</v>
+        <v>0.08411427369601934</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -2545,19 +2545,19 @@
         <v>90699</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>71405</v>
+        <v>72530</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>110959</v>
+        <v>113389</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05909489890737916</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04652418253684806</v>
+        <v>0.0472568554786278</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07229572394637482</v>
+        <v>0.07387870479471224</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>717098</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>701753</v>
+        <v>701522</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>729997</v>
+        <v>729092</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9465106196919887</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9262557287115097</v>
+        <v>0.9259509999705425</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9635354762707919</v>
+        <v>0.9623419412302101</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>659</v>
@@ -2595,7 +2595,7 @@
         <v>727000</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>711542</v>
+        <v>711803</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>740005</v>
@@ -2604,10 +2604,10 @@
         <v>0.9354405956595547</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9155503066347138</v>
+        <v>0.9158857263039805</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9521739386854273</v>
+        <v>0.9521735422753402</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1313</v>
@@ -2616,19 +2616,19 @@
         <v>1444098</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1423838</v>
+        <v>1421408</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1463392</v>
+        <v>1462267</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9409051010926208</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9277042760536249</v>
+        <v>0.9261212952052876</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9534758174631518</v>
+        <v>0.9527431445213721</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>47632</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35900</v>
+        <v>35463</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62019</v>
+        <v>61967</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05025862184235697</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03787937004804606</v>
+        <v>0.03741842318228855</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06543850009507358</v>
+        <v>0.06538354915150468</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>82</v>
@@ -2741,19 +2741,19 @@
         <v>84706</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65918</v>
+        <v>68318</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>100573</v>
+        <v>104402</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08052645009359113</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06266592426198767</v>
+        <v>0.06494679483369556</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09561061785361051</v>
+        <v>0.09925061547285453</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>129</v>
@@ -2762,19 +2762,19 @@
         <v>132338</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>110409</v>
+        <v>112278</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>154210</v>
+        <v>156682</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06618086434677321</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05521440478970294</v>
+        <v>0.05614893590417886</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07711908862128439</v>
+        <v>0.07835504733844152</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>900107</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>885720</v>
+        <v>885772</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>911839</v>
+        <v>912276</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.949741378157643</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9345614999049263</v>
+        <v>0.9346164508484953</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9621206299519538</v>
+        <v>0.9625815768177114</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>921</v>
@@ -2812,19 +2812,19 @@
         <v>967195</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>951328</v>
+        <v>947499</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>985983</v>
+        <v>983583</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9194735499064088</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9043893821463895</v>
+        <v>0.9007493845271455</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9373340757380125</v>
+        <v>0.9350532051663045</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1784</v>
@@ -2833,19 +2833,19 @@
         <v>1867302</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1845430</v>
+        <v>1842958</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1889231</v>
+        <v>1887362</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9338191356532268</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9228809113787152</v>
+        <v>0.9216449526615587</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9447855952102968</v>
+        <v>0.9438510640958213</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>175771</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>149054</v>
+        <v>151073</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>204003</v>
+        <v>202435</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05130862410513538</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0435098820527838</v>
+        <v>0.04409917184942139</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05954961786880995</v>
+        <v>0.05909200078441039</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>243</v>
@@ -2958,19 +2958,19 @@
         <v>260191</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>231632</v>
+        <v>229975</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>294350</v>
+        <v>293872</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07314830276374262</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06511952507811121</v>
+        <v>0.06465355223801444</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08275147388935107</v>
+        <v>0.08261728667356021</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>407</v>
@@ -2979,19 +2979,19 @@
         <v>435962</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>396700</v>
+        <v>391533</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>480485</v>
+        <v>479168</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06243375703205586</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05681103674328739</v>
+        <v>0.05607113253403907</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06880991841940987</v>
+        <v>0.06862126736390818</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3249986</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3221754</v>
+        <v>3223322</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3276703</v>
+        <v>3274684</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9486913758948646</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.94045038213119</v>
+        <v>0.9409079992155894</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9564901179472161</v>
+        <v>0.9559008281505785</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3054</v>
@@ -3029,19 +3029,19 @@
         <v>3296843</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3262684</v>
+        <v>3263162</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3325402</v>
+        <v>3327059</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9268516972362574</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9172485261106489</v>
+        <v>0.9173827133264398</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9348804749218887</v>
+        <v>0.9353464477619856</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6098</v>
@@ -3050,19 +3050,19 @@
         <v>6546828</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6502305</v>
+        <v>6503622</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6586090</v>
+        <v>6591257</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9375662429679441</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9311900815805899</v>
+        <v>0.9313787326360918</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9431889632567119</v>
+        <v>0.9439288674659609</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>29387</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20530</v>
+        <v>19799</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40383</v>
+        <v>42205</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04354961346187358</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03042427498953089</v>
+        <v>0.02934063399042567</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05984421503074597</v>
+        <v>0.06254467778864939</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -3415,19 +3415,19 @@
         <v>38198</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27603</v>
+        <v>27938</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50543</v>
+        <v>51447</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05677091347064121</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04102509895610804</v>
+        <v>0.0415228269045327</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07511926883334517</v>
+        <v>0.07646195055998661</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>67</v>
@@ -3436,19 +3436,19 @@
         <v>67585</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52562</v>
+        <v>52575</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83207</v>
+        <v>85451</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05015064405218797</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03900285128555424</v>
+        <v>0.03901292658236895</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.061742577998589</v>
+        <v>0.06340760218827436</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>645413</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>634417</v>
+        <v>632595</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>654270</v>
+        <v>655001</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9564503865381264</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.940155784969254</v>
+        <v>0.9374553222113502</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9695757250104691</v>
+        <v>0.9706593660095739</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>628</v>
@@ -3486,19 +3486,19 @@
         <v>634641</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>622296</v>
+        <v>621392</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>645236</v>
+        <v>644901</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9432290865293588</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9248807311666547</v>
+        <v>0.9235380494400133</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9589749010438919</v>
+        <v>0.9584771730954672</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1251</v>
@@ -3507,19 +3507,19 @@
         <v>1280054</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1264432</v>
+        <v>1262188</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1295077</v>
+        <v>1295064</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9498493559478121</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9382574220014113</v>
+        <v>0.9365923978117253</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9609971487144457</v>
+        <v>0.960987073417631</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>46098</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33088</v>
+        <v>34711</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61426</v>
+        <v>60249</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04508651946058254</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03236197136434096</v>
+        <v>0.03394904188820356</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0600780178724824</v>
+        <v>0.05892706335894959</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>92</v>
@@ -3632,19 +3632,19 @@
         <v>97180</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>81106</v>
+        <v>80461</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>118624</v>
+        <v>117189</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09318098158407377</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07776867919330212</v>
+        <v>0.07715053744528629</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1137425990802079</v>
+        <v>0.1123667497808998</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>135</v>
@@ -3653,19 +3653,19 @@
         <v>143278</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>120797</v>
+        <v>120669</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>166840</v>
+        <v>168113</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06937222684047922</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.058487604241312</v>
+        <v>0.05842580104007889</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08078094399622454</v>
+        <v>0.08139727697631913</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>976333</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>961005</v>
+        <v>962182</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>989343</v>
+        <v>987720</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9549134805394175</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9399219821275175</v>
+        <v>0.9410729366410504</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9676380286356591</v>
+        <v>0.9660509581117965</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>885</v>
@@ -3703,19 +3703,19 @@
         <v>945733</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>924289</v>
+        <v>925724</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>961807</v>
+        <v>962452</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9068190184159263</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8862574009197921</v>
+        <v>0.8876332502191002</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.922231320806698</v>
+        <v>0.9228494625547137</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1793</v>
@@ -3724,19 +3724,19 @@
         <v>1922066</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1898504</v>
+        <v>1897231</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1944547</v>
+        <v>1944675</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9306277731595208</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9192190560037753</v>
+        <v>0.9186027230236797</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9415123957586879</v>
+        <v>0.9415741989599211</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>26662</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17212</v>
+        <v>17196</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37480</v>
+        <v>39194</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03510161854954137</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02266132298579196</v>
+        <v>0.0226401343291731</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04934460736596931</v>
+        <v>0.05160209501679179</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -3849,19 +3849,19 @@
         <v>63715</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50066</v>
+        <v>49233</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>80524</v>
+        <v>80776</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08116401142482023</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06377789296759534</v>
+        <v>0.06271599414644362</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.102577011433842</v>
+        <v>0.1028974594244618</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>85</v>
@@ -3870,19 +3870,19 @@
         <v>90376</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>73806</v>
+        <v>75175</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>112757</v>
+        <v>110167</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05851243219654469</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04778457616537921</v>
+        <v>0.04867053417383858</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07300278919746138</v>
+        <v>0.07132597315347444</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>732890</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>722072</v>
+        <v>720358</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>742340</v>
+        <v>742356</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9648983814504586</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9506553926340308</v>
+        <v>0.9483979049832079</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9773386770142082</v>
+        <v>0.9773598656708268</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>675</v>
@@ -3920,19 +3920,19 @@
         <v>721296</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>704487</v>
+        <v>704235</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>734945</v>
+        <v>735778</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9188359885751798</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.897422988566158</v>
+        <v>0.8971025405755382</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9362221070324046</v>
+        <v>0.9372840058535566</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1347</v>
@@ -3941,19 +3941,19 @@
         <v>1454187</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1431806</v>
+        <v>1434396</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1470757</v>
+        <v>1469388</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9414875678034553</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9269972108025378</v>
+        <v>0.9286740268465254</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9522154238346207</v>
+        <v>0.9513294658261614</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>65322</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50900</v>
+        <v>51469</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>81606</v>
+        <v>81868</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06967218428982243</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05428937501378487</v>
+        <v>0.05489621681649063</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08703995365642464</v>
+        <v>0.08731975613542564</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>75</v>
@@ -4066,19 +4066,19 @@
         <v>82479</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65009</v>
+        <v>66330</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102849</v>
+        <v>100348</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07901953101294189</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06228216791382175</v>
+        <v>0.06354756586740416</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0985352928751328</v>
+        <v>0.09613881822095598</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>139</v>
@@ -4087,19 +4087,19 @@
         <v>147801</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>126704</v>
+        <v>124275</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>174925</v>
+        <v>172369</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0745963945366266</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06394869744290461</v>
+        <v>0.06272271756316657</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08828586650323347</v>
+        <v>0.0869958025971964</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>872245</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>855961</v>
+        <v>855699</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>886667</v>
+        <v>886098</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9303278157101775</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9129600463435753</v>
+        <v>0.9126802438645744</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9457106249862148</v>
+        <v>0.9451037831835092</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>884</v>
@@ -4137,19 +4137,19 @@
         <v>961300</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>940930</v>
+        <v>943431</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>978770</v>
+        <v>977449</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9209804689870581</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9014647071248669</v>
+        <v>0.9038611817790438</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9377178320861782</v>
+        <v>0.9364524341325958</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1752</v>
@@ -4158,19 +4158,19 @@
         <v>1833545</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1806421</v>
+        <v>1808977</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1854642</v>
+        <v>1857071</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9254036054633734</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9117141334967663</v>
+        <v>0.9130041974028036</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9360513025570953</v>
+        <v>0.9372772824368334</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>167469</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>141703</v>
+        <v>142105</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>195430</v>
+        <v>193487</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04933756809564291</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04174680470936292</v>
+        <v>0.04186507758721519</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05757502808004282</v>
+        <v>0.05700254670070513</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>266</v>
@@ -4283,19 +4283,19 @@
         <v>281571</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>250315</v>
+        <v>249461</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>314483</v>
+        <v>316563</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07943788241922732</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07061988369797076</v>
+        <v>0.07037897366956115</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08872308701189194</v>
+        <v>0.08930994241980432</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>426</v>
@@ -4304,19 +4304,19 @@
         <v>449040</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>409668</v>
+        <v>408510</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>496767</v>
+        <v>490707</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06471348445840792</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05903944033177514</v>
+        <v>0.0588724850318107</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0715917241276039</v>
+        <v>0.0707184017167687</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3226881</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3198920</v>
+        <v>3200863</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3252647</v>
+        <v>3252245</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9506624319043571</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9424249719199572</v>
+        <v>0.9429974532992949</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9582531952906371</v>
+        <v>0.9581349224127848</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3072</v>
@@ -4354,19 +4354,19 @@
         <v>3262971</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3230059</v>
+        <v>3227979</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3294227</v>
+        <v>3295081</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9205621175807727</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9112769129881079</v>
+        <v>0.9106900575801958</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9293801163020291</v>
+        <v>0.929621026330439</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6143</v>
@@ -4375,19 +4375,19 @@
         <v>6489852</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6442125</v>
+        <v>6448185</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6529224</v>
+        <v>6530382</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.935286515541592</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.928408275872396</v>
+        <v>0.9292815982832313</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9409605596682242</v>
+        <v>0.9411275149681891</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>61478</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46712</v>
+        <v>47315</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81591</v>
+        <v>81174</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08900722459448292</v>
+        <v>0.08900722459448293</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06762934696545343</v>
+        <v>0.06850245013311729</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1181258820814665</v>
+        <v>0.1175224909136663</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>142</v>
@@ -4740,19 +4740,19 @@
         <v>88110</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>73856</v>
+        <v>74095</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>103262</v>
+        <v>103975</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1206077099619874</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1010968010166596</v>
+        <v>0.1014235023273518</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1413487342048914</v>
+        <v>0.1423245306828513</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>203</v>
@@ -4761,19 +4761,19 @@
         <v>149588</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>129407</v>
+        <v>127800</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>172394</v>
+        <v>172510</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1052503605145215</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09105103073158623</v>
+        <v>0.08992036005209042</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1212970431450977</v>
+        <v>0.1213781651899168</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>629232</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>609119</v>
+        <v>609536</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>643998</v>
+        <v>643395</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.910992775405517</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8818741179185335</v>
+        <v>0.8824775090863329</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9323706530345461</v>
+        <v>0.9314975498668828</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1093</v>
@@ -4811,19 +4811,19 @@
         <v>642439</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>627287</v>
+        <v>626574</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>656693</v>
+        <v>656454</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8793922900380124</v>
+        <v>0.8793922900380127</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8586512657951085</v>
+        <v>0.8576754693171486</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8989031989833404</v>
+        <v>0.8985764976726481</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1762</v>
@@ -4832,19 +4832,19 @@
         <v>1271670</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1248864</v>
+        <v>1248748</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1291851</v>
+        <v>1293458</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8947496394854785</v>
+        <v>0.8947496394854786</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.878702956854903</v>
+        <v>0.8786218348100833</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9089489692684136</v>
+        <v>0.91007963994791</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>99781</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>77450</v>
+        <v>79107</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>126908</v>
+        <v>124250</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09512766635116277</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07383791981507475</v>
+        <v>0.07541816716203559</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1209896175373986</v>
+        <v>0.1184556143871603</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>162</v>
@@ -4957,19 +4957,19 @@
         <v>112103</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>95388</v>
+        <v>96364</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>131292</v>
+        <v>129556</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1050728917835142</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08940655714844423</v>
+        <v>0.09032163614254499</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1230589270038969</v>
+        <v>0.1214315796105402</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>242</v>
@@ -4978,19 +4978,19 @@
         <v>211884</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>185406</v>
+        <v>184913</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>241208</v>
+        <v>241207</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1001425494423063</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08762832603309154</v>
+        <v>0.08739538394845558</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1140022167996059</v>
+        <v>0.1140016960608601</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>949136</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>922009</v>
+        <v>924667</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>971467</v>
+        <v>969810</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9048723336488373</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8790103824626013</v>
+        <v>0.8815443856128398</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9261620801849253</v>
+        <v>0.9245818328379641</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1350</v>
@@ -5028,19 +5028,19 @@
         <v>954800</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>935611</v>
+        <v>937347</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>971515</v>
+        <v>970539</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8949271082164859</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8769410729961029</v>
+        <v>0.8785684203894597</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.910593442851556</v>
+        <v>0.909678363857455</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2234</v>
@@ -5049,19 +5049,19 @@
         <v>1903936</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1874612</v>
+        <v>1874613</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1930414</v>
+        <v>1930907</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8998574505576937</v>
+        <v>0.8998574505576938</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8859977832003942</v>
+        <v>0.8859983039391401</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9123716739669087</v>
+        <v>0.9126046160515445</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>94297</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74683</v>
+        <v>74551</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119726</v>
+        <v>117283</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1179775828384684</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09343861782262441</v>
+        <v>0.09327344416807448</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1497928105452305</v>
+        <v>0.1467361893715436</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>139</v>
@@ -5174,19 +5174,19 @@
         <v>107383</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91571</v>
+        <v>91462</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>126967</v>
+        <v>126373</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1334132116945392</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1137687555119568</v>
+        <v>0.1136330864851438</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1577448737917209</v>
+        <v>0.1570066667899935</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>216</v>
@@ -5195,19 +5195,19 @@
         <v>201680</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>175701</v>
+        <v>175819</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>230438</v>
+        <v>231175</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.125722396652087</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1095276328144075</v>
+        <v>0.1096014359085983</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1436498460617794</v>
+        <v>0.1441086821326468</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>704981</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>679552</v>
+        <v>681995</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>724595</v>
+        <v>724727</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8820224171615318</v>
+        <v>0.8820224171615317</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8502071894547694</v>
+        <v>0.8532638106284562</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9065613821773754</v>
+        <v>0.9067265558319251</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>900</v>
@@ -5245,19 +5245,19 @@
         <v>697507</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>677923</v>
+        <v>678517</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>713319</v>
+        <v>713428</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8665867883054607</v>
+        <v>0.8665867883054608</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8422551262082789</v>
+        <v>0.8429933332100065</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.886231244488043</v>
+        <v>0.8863669135148561</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1495</v>
@@ -5266,19 +5266,19 @@
         <v>1402488</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1373730</v>
+        <v>1372993</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1428467</v>
+        <v>1428349</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8742776033479132</v>
+        <v>0.874277603347913</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8563501539382208</v>
+        <v>0.8558913178673532</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8904723671855928</v>
+        <v>0.8903985640914017</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>87373</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>69798</v>
+        <v>70429</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108999</v>
+        <v>107715</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08843170804464072</v>
+        <v>0.08843170804464073</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07064423579505337</v>
+        <v>0.07128260849652997</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1103197872737867</v>
+        <v>0.1090206767310618</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>182</v>
@@ -5391,19 +5391,19 @@
         <v>137586</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>118007</v>
+        <v>119427</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>157436</v>
+        <v>159422</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1233753692443001</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1058181196695579</v>
+        <v>0.1070919359068963</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1411745974179152</v>
+        <v>0.1429556688025992</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>266</v>
@@ -5412,19 +5412,19 @@
         <v>224959</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>199426</v>
+        <v>197339</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>256141</v>
+        <v>256120</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1069598393829069</v>
+        <v>0.106959839382907</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09481987879271304</v>
+        <v>0.09382735347552412</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1217855770794153</v>
+        <v>0.1217756864979296</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>900655</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>879029</v>
+        <v>880313</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>918230</v>
+        <v>917599</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9115682919553593</v>
+        <v>0.9115682919553594</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8896802127262132</v>
+        <v>0.8909793232689381</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9293557642049466</v>
+        <v>0.92871739150347</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1375</v>
@@ -5462,19 +5462,19 @@
         <v>977597</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>957747</v>
+        <v>955761</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>997176</v>
+        <v>995756</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8766246307556999</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8588254025820847</v>
+        <v>0.857044331197401</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8941818803304421</v>
+        <v>0.8929080640931035</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2295</v>
@@ -5483,19 +5483,19 @@
         <v>1878252</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1847070</v>
+        <v>1847091</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1903785</v>
+        <v>1905872</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8930401606170931</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8782144229205848</v>
+        <v>0.8782243135020705</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9051801212072873</v>
+        <v>0.906172646524476</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>342929</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>306944</v>
+        <v>306091</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>385023</v>
+        <v>386087</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09723153214343004</v>
+        <v>0.09723153214343003</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08702862900726986</v>
+        <v>0.08678672178550764</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.109166393051504</v>
+        <v>0.1094681089141488</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>625</v>
@@ -5608,19 +5608,19 @@
         <v>445182</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>410388</v>
+        <v>411319</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>482479</v>
+        <v>481273</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1197521200557106</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1103929114332298</v>
+        <v>0.1106432249438359</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1297848794768537</v>
+        <v>0.1294605370500311</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>927</v>
@@ -5629,19 +5629,19 @@
         <v>788111</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>732948</v>
+        <v>736770</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>841457</v>
+        <v>840390</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1087880682930356</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.101173605771423</v>
+        <v>0.1017011589876645</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1161517756946403</v>
+        <v>0.1160045453312432</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3184004</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3141910</v>
+        <v>3140846</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3219989</v>
+        <v>3220842</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9027684678565699</v>
+        <v>0.9027684678565697</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.890833606948496</v>
+        <v>0.8905318910858507</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.91297137099273</v>
+        <v>0.9132132782144922</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4718</v>
@@ -5679,19 +5679,19 @@
         <v>3272343</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3235046</v>
+        <v>3236252</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3307137</v>
+        <v>3306206</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8802478799442895</v>
+        <v>0.8802478799442892</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8702151205231463</v>
+        <v>0.8705394629499689</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8896070885667704</v>
+        <v>0.8893567750561644</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7786</v>
@@ -5700,19 +5700,19 @@
         <v>6456347</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6403001</v>
+        <v>6404068</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6511510</v>
+        <v>6507688</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8912119317069643</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8838482243053596</v>
+        <v>0.8839954546687567</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8988263942285767</v>
+        <v>0.8982988410123356</v>
       </c>
     </row>
     <row r="18">
